--- a/data/Netflix/top_20_mexico_tv_shows.xlsx
+++ b/data/Netflix/top_20_mexico_tv_shows.xlsx
@@ -1,43 +1,294 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macarahmorgan/Downloads/CS-441/Videos/netflix/data/Netflix/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C85BA8-FD41-AB4E-8C16-A23A460E844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$2:$I$23</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+  <si>
+    <t>Cumulative Weeks in Netflix Top 10</t>
+  </si>
+  <si>
+    <t>Show Title</t>
+  </si>
+  <si>
+    <t>Yo soy Betty, la fea</t>
+  </si>
+  <si>
+    <t>Til Money Do Us Part</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>La Reina del Sur</t>
+  </si>
+  <si>
+    <t>Café con aroma de mujer</t>
+  </si>
+  <si>
+    <t>Falsa identidad</t>
+  </si>
+  <si>
+    <t>PAW Patrol</t>
+  </si>
+  <si>
+    <t>El Chema</t>
+  </si>
+  <si>
+    <t>Extraordinary Attorney Woo</t>
+  </si>
+  <si>
+    <t>Jenni Rivera: Mariposa de Barrio</t>
+  </si>
+  <si>
+    <t>Malverde, el santo patrón</t>
+  </si>
+  <si>
+    <t>Manifest</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Newly Rich, Newly Poor</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>All of Us Are Dead</t>
+  </si>
+  <si>
+    <t>The Queen of Flow</t>
+  </si>
+  <si>
+    <t>The Marked Heart</t>
+  </si>
+  <si>
+    <t>True Beauty</t>
+  </si>
+  <si>
+    <t>DAHMER</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Crash Landing on You</t>
+  </si>
+  <si>
+    <t>Itaewon Class</t>
+  </si>
+  <si>
+    <t>SPY x FAMILY</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>The Apothecary Diaries</t>
+  </si>
+  <si>
+    <t>The King's Affection</t>
+  </si>
+  <si>
+    <t>Blue Lock</t>
+  </si>
+  <si>
+    <t>Alchemy of Souls</t>
+  </si>
+  <si>
+    <t>Tokyo Revengers</t>
+  </si>
+  <si>
+    <t>First Love</t>
+  </si>
+  <si>
+    <t>Frieren: Beyond Journey's End</t>
+  </si>
+  <si>
+    <t>The Glory</t>
+  </si>
+  <si>
+    <t>Nevertheless,</t>
+  </si>
+  <si>
+    <t>【OSHI NO KO】</t>
+  </si>
+  <si>
+    <t>Hometown Cha-Cha-Cha</t>
+  </si>
+  <si>
+    <t>Chainsaw Man</t>
+  </si>
+  <si>
+    <t>Roppongi Class</t>
+  </si>
+  <si>
+    <t>Business Proposal</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>The Good Doctor</t>
+  </si>
+  <si>
+    <t>Betty en NY</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>The Rookie</t>
+  </si>
+  <si>
+    <t>The Night Agent</t>
+  </si>
+  <si>
+    <t>Inventing Anna</t>
+  </si>
+  <si>
+    <t>Lupin</t>
+  </si>
+  <si>
+    <t>The Lincoln Lawyer</t>
+  </si>
+  <si>
+    <t>Fool Me Once</t>
+  </si>
+  <si>
+    <t>Bridgerton</t>
+  </si>
+  <si>
+    <t>The Blacklist</t>
+  </si>
+  <si>
+    <t>The Witcher</t>
+  </si>
+  <si>
+    <t>Outer Banks</t>
+  </si>
+  <si>
+    <t>Firefly Lane</t>
+  </si>
+  <si>
+    <t>CoComelon</t>
+  </si>
+  <si>
+    <t>Ozark</t>
+  </si>
+  <si>
+    <t>Maid</t>
+  </si>
+  <si>
+    <t>Suits</t>
+  </si>
+  <si>
+    <t>Young Sheldon</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Love Is Blind</t>
+  </si>
+  <si>
+    <t>Virgin River</t>
+  </si>
+  <si>
+    <t>New Amsterdam</t>
+  </si>
+  <si>
+    <t>Ginny &amp; Georgia</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -46,93 +297,166 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,232 +744,600 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Cumulative Weeks in Netflix Top 10</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Show Title</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5">
+        <v>21</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="19">
+        <v>72</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="21">
         <v>54</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Yo soy Betty, la fea</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Til Money Do Us Part</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="G5" s="5">
+        <v>64</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
         <v>21</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="5">
+        <v>25</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="21">
         <v>21</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>La Reina del Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="5">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5">
         <v>20</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Café con aroma de mujer</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>11</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="17">
+        <v>13</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="19">
         <v>19</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Falsa identidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5">
         <v>17</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PAW Patrol</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>11</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="19">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="5">
         <v>16</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>El Chema</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="5">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5">
         <v>14</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Extraordinary Attorney Woo</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5">
+        <v>15</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5">
         <v>14</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Jenni Rivera: Mariposa de Barrio</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5">
         <v>13</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Malverde, el santo patrón</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Manifest</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="14">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="5">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Squid Game</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="14">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5">
         <v>12</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Newly Rich, Newly Poor</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="17">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5">
         <v>12</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Stranger Things</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="5">
+        <v>13</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5">
         <v>12</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>All of Us Are Dead</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="5">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="5">
         <v>11</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>The Queen of Flow</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="14">
+        <v>7</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="17">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5">
         <v>10</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>The Marked Heart</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="5">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5">
         <v>9</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>True Beauty</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+    </row>
+    <row r="23" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7">
         <v>9</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DAHMER</t>
-        </is>
-      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C32" s="15"/>
+      <c r="E32" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="50" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>